--- a/santa_clara_county/LTCF/CFR_in_LTCF_version2.xlsx
+++ b/santa_clara_county/LTCF/CFR_in_LTCF_version2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\santa_clara_county\LTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05431C-C7B0-4ECC-8CA3-2EE9D2BC2518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83C95D-1E9B-464B-9E81-AE2B32145CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{117AAEEC-A907-4519-B809-3E58232F1605}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>1. Covid deaths by date and facility type</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>Cum CFR</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>day shift</t>
+  </si>
+  <si>
+    <t>advance death days</t>
+  </si>
+  <si>
+    <t>Highest correlation so advance deaths by 14 days</t>
   </si>
 </sst>
 </file>
@@ -337,7 +352,16 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Clara County Cum CFR in LTCFs</a:t>
+              <a:t> Clara County Cumulative CFR in LTCFs</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Deaths advanced 14 days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -405,2640 +429,2382 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative CFR calculation'!$H$2:$H$438</c:f>
+              <c:f>'Cumulative CFR calculation'!$H$39:$H$432</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="437"/>
+                <c:ptCount val="394"/>
                 <c:pt idx="0">
-                  <c:v>43885</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43886</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43888</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43889</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43890</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43891</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43892</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43893</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43894</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43895</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43896</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43897</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43898</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43899</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43900</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43901</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43902</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43903</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43904</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43905</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43906</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43907</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43908</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43909</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43910</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43911</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43912</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43913</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43914</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43915</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43916</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43917</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43918</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43919</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43920</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43921</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43922</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43923</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43924</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43925</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43926</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43927</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43928</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43929</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43930</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43931</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43932</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43933</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43934</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43935</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43936</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43937</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43938</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43939</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43940</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43941</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43942</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43943</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43944</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43945</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43946</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43947</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43948</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43949</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43950</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43951</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43952</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43953</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43954</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43955</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43956</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43957</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43958</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43959</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43960</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43961</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43962</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43963</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43964</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43965</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43966</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43967</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43968</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43969</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43970</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43971</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43972</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43973</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43974</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43975</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43976</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43977</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43978</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43979</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43980</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43981</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43982</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43983</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43984</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43985</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43986</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43987</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43988</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43989</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43990</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43991</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43992</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43993</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43994</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43995</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43996</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43997</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43998</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43999</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>44000</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>44001</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44002</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44003</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44004</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44005</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44006</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44007</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44008</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44009</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44010</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44011</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44012</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44013</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44014</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44015</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44016</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44017</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44018</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44019</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44020</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44021</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44022</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44023</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44024</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44025</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44026</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44027</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44028</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44029</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44030</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44031</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44032</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44033</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44034</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>44035</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>44036</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>44037</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>44038</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>44039</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>44040</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>44041</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>44042</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>44043</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>44044</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>44045</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>44046</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>44047</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>44048</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>44049</c:v>
+                  <c:v>44086</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>44050</c:v>
+                  <c:v>44087</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>44051</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>44052</c:v>
+                  <c:v>44089</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>44053</c:v>
+                  <c:v>44090</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>44054</c:v>
+                  <c:v>44091</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>44055</c:v>
+                  <c:v>44092</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>44056</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>44057</c:v>
+                  <c:v>44094</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>44058</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>44059</c:v>
+                  <c:v>44096</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>44060</c:v>
+                  <c:v>44097</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>44061</c:v>
+                  <c:v>44098</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>44062</c:v>
+                  <c:v>44099</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>44063</c:v>
+                  <c:v>44100</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>44064</c:v>
+                  <c:v>44101</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>44065</c:v>
+                  <c:v>44102</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>44066</c:v>
+                  <c:v>44103</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>44067</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>44068</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>44069</c:v>
+                  <c:v>44106</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>44070</c:v>
+                  <c:v>44107</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>44071</c:v>
+                  <c:v>44108</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>44072</c:v>
+                  <c:v>44109</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>44073</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>44074</c:v>
+                  <c:v>44111</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>44075</c:v>
+                  <c:v>44112</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>44076</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>44077</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>44078</c:v>
+                  <c:v>44115</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>44079</c:v>
+                  <c:v>44116</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>44080</c:v>
+                  <c:v>44117</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>44081</c:v>
+                  <c:v>44118</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>44082</c:v>
+                  <c:v>44119</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>44083</c:v>
+                  <c:v>44120</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>44084</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>44085</c:v>
+                  <c:v>44122</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>44086</c:v>
+                  <c:v>44123</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>44087</c:v>
+                  <c:v>44124</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>44088</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>44089</c:v>
+                  <c:v>44126</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>44090</c:v>
+                  <c:v>44127</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>44091</c:v>
+                  <c:v>44128</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>44092</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>44093</c:v>
+                  <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>44094</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>44095</c:v>
+                  <c:v>44132</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>44096</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>44097</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>44098</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>44099</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>44100</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>44101</c:v>
+                  <c:v>44138</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>44102</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>44103</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>44104</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>44105</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>44106</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>44107</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>44108</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>44109</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>44110</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>44111</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>44112</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>44113</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>44114</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>44115</c:v>
+                  <c:v>44152</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>44116</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>44117</c:v>
+                  <c:v>44154</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>44118</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>44119</c:v>
+                  <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>44120</c:v>
+                  <c:v>44157</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>44121</c:v>
+                  <c:v>44158</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>44122</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>44123</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>44124</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>44125</c:v>
+                  <c:v>44162</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>44126</c:v>
+                  <c:v>44163</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>44127</c:v>
+                  <c:v>44164</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>44128</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>44129</c:v>
+                  <c:v>44166</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>44130</c:v>
+                  <c:v>44167</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>44131</c:v>
+                  <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>44132</c:v>
+                  <c:v>44169</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>44133</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>44134</c:v>
+                  <c:v>44171</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>44135</c:v>
+                  <c:v>44172</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>44136</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>44137</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>44138</c:v>
+                  <c:v>44175</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>44139</c:v>
+                  <c:v>44176</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>44140</c:v>
+                  <c:v>44177</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>44141</c:v>
+                  <c:v>44178</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>44142</c:v>
+                  <c:v>44179</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>44143</c:v>
+                  <c:v>44180</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>44144</c:v>
+                  <c:v>44181</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>44145</c:v>
+                  <c:v>44182</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>44146</c:v>
+                  <c:v>44183</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>44147</c:v>
+                  <c:v>44184</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>44148</c:v>
+                  <c:v>44185</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>44149</c:v>
+                  <c:v>44186</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>44150</c:v>
+                  <c:v>44187</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>44151</c:v>
+                  <c:v>44188</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>44152</c:v>
+                  <c:v>44189</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>44153</c:v>
+                  <c:v>44190</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>44154</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>44155</c:v>
+                  <c:v>44192</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>44156</c:v>
+                  <c:v>44193</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>44157</c:v>
+                  <c:v>44194</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>44158</c:v>
+                  <c:v>44195</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>44159</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>44160</c:v>
+                  <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>44161</c:v>
+                  <c:v>44198</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>44162</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>44163</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>44164</c:v>
+                  <c:v>44201</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>44165</c:v>
+                  <c:v>44202</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>44166</c:v>
+                  <c:v>44203</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>44167</c:v>
+                  <c:v>44204</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>44168</c:v>
+                  <c:v>44205</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>44169</c:v>
+                  <c:v>44206</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>44170</c:v>
+                  <c:v>44207</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>44171</c:v>
+                  <c:v>44208</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>44172</c:v>
+                  <c:v>44209</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>44173</c:v>
+                  <c:v>44210</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>44174</c:v>
+                  <c:v>44211</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>44175</c:v>
+                  <c:v>44212</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>44176</c:v>
+                  <c:v>44213</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>44177</c:v>
+                  <c:v>44214</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>44178</c:v>
+                  <c:v>44215</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>44179</c:v>
+                  <c:v>44216</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>44180</c:v>
+                  <c:v>44217</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>44181</c:v>
+                  <c:v>44218</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>44182</c:v>
+                  <c:v>44219</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>44183</c:v>
+                  <c:v>44220</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>44184</c:v>
+                  <c:v>44221</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>44185</c:v>
+                  <c:v>44222</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>44186</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>44187</c:v>
+                  <c:v>44224</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>44188</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>44189</c:v>
+                  <c:v>44226</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>44190</c:v>
+                  <c:v>44227</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>44191</c:v>
+                  <c:v>44228</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>44192</c:v>
+                  <c:v>44229</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>44193</c:v>
+                  <c:v>44230</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>44194</c:v>
+                  <c:v>44231</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>44195</c:v>
+                  <c:v>44232</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>44196</c:v>
+                  <c:v>44233</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>44197</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>44198</c:v>
+                  <c:v>44235</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>44199</c:v>
+                  <c:v>44236</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>44200</c:v>
+                  <c:v>44237</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>44201</c:v>
+                  <c:v>44238</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>44202</c:v>
+                  <c:v>44239</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>44203</c:v>
+                  <c:v>44240</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>44204</c:v>
+                  <c:v>44241</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>44205</c:v>
+                  <c:v>44242</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>44206</c:v>
+                  <c:v>44243</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>44207</c:v>
+                  <c:v>44244</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>44208</c:v>
+                  <c:v>44245</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>44209</c:v>
+                  <c:v>44246</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>44210</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>44211</c:v>
+                  <c:v>44248</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>44212</c:v>
+                  <c:v>44249</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>44213</c:v>
+                  <c:v>44250</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>44214</c:v>
+                  <c:v>44251</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>44215</c:v>
+                  <c:v>44252</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>44216</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>44217</c:v>
+                  <c:v>44254</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>44218</c:v>
+                  <c:v>44255</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>44219</c:v>
+                  <c:v>44256</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>44220</c:v>
+                  <c:v>44257</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>44221</c:v>
+                  <c:v>44258</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>44222</c:v>
+                  <c:v>44259</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>44223</c:v>
+                  <c:v>44260</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>44224</c:v>
+                  <c:v>44261</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>44225</c:v>
+                  <c:v>44262</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>44226</c:v>
+                  <c:v>44263</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>44227</c:v>
+                  <c:v>44264</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>44228</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>44229</c:v>
+                  <c:v>44266</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>44230</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>44231</c:v>
+                  <c:v>44268</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>44232</c:v>
+                  <c:v>44269</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>44233</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>44234</c:v>
+                  <c:v>44271</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>44235</c:v>
+                  <c:v>44272</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>44236</c:v>
+                  <c:v>44273</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>44237</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>44238</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>44239</c:v>
+                  <c:v>44276</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>44240</c:v>
+                  <c:v>44277</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>44241</c:v>
+                  <c:v>44278</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>44242</c:v>
+                  <c:v>44279</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>44243</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>44244</c:v>
+                  <c:v>44281</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>44245</c:v>
+                  <c:v>44282</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>44246</c:v>
+                  <c:v>44283</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>44247</c:v>
+                  <c:v>44284</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>44248</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>44249</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>44250</c:v>
+                  <c:v>44287</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>44251</c:v>
+                  <c:v>44288</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>44252</c:v>
+                  <c:v>44289</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>44253</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>44254</c:v>
+                  <c:v>44291</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>44255</c:v>
+                  <c:v>44292</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>44256</c:v>
+                  <c:v>44293</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>44257</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>44258</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>44259</c:v>
+                  <c:v>44296</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>44260</c:v>
+                  <c:v>44297</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>44261</c:v>
+                  <c:v>44298</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>44262</c:v>
+                  <c:v>44299</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>44263</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>44264</c:v>
+                  <c:v>44301</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>44265</c:v>
+                  <c:v>44302</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>44266</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>44267</c:v>
+                  <c:v>44304</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>44268</c:v>
+                  <c:v>44305</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>44269</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>44270</c:v>
+                  <c:v>44307</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>44271</c:v>
+                  <c:v>44308</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>44272</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>44273</c:v>
+                  <c:v>44310</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>44274</c:v>
+                  <c:v>44311</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>44275</c:v>
+                  <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>44276</c:v>
+                  <c:v>44313</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>44277</c:v>
+                  <c:v>44314</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>44278</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>44279</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>44280</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>44281</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>44282</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>44283</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>44284</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>44285</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>44288</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>44289</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>44290</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>44291</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>44292</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>44293</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>44294</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>44296</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>44297</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>44298</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>44299</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>44300</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>44301</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>44302</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>44303</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>44304</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>44305</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>44306</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>44307</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>44308</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>44309</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>44310</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>44311</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>44312</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>44313</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>44314</c:v>
-                </c:pt>
-                <c:pt idx="430">
                   <c:v>44315</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>44318</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>44319</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>44320</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>44321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative CFR calculation'!$N$2:$N$438</c:f>
+              <c:f>'Cumulative CFR calculation'!$N$39:$N$432</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="437"/>
+                <c:ptCount val="394"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.18803418803418803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.18461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.17105263157894737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.16766467065868262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.15760869565217392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.16417910447761194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.15217391304347827</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.13090909090909092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.11349693251533742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.10644257703081232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.10471204188481675</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.10512820512820513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.10319410319410319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.10218978102189781</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.10352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.10440835266821345</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0.10755148741418764</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>0.10859728506787331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.11358574610244988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.05</c:v>
+                  <c:v>0.11208791208791209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.05</c:v>
+                  <c:v>0.10855949895615867</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.407407407407407E-2</c:v>
+                  <c:v>0.10685483870967742</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.14814814814814814</c:v>
+                  <c:v>0.10474308300395258</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.16129032258064516</c:v>
+                  <c:v>0.10311284046692606</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.1036468330134357</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2</c:v>
+                  <c:v>0.10456273764258556</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18421052631578946</c:v>
+                  <c:v>0.10299625468164794</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.10185185185185185</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18</c:v>
+                  <c:v>0.10218978102189781</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.22807017543859648</c:v>
+                  <c:v>0.10326086956521739</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.26984126984126983</c:v>
+                  <c:v>0.10288808664259928</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.24637681159420291</c:v>
+                  <c:v>0.10142348754448399</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25333333333333335</c:v>
+                  <c:v>0.10106382978723404</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2391304347826087</c:v>
+                  <c:v>9.8275862068965519E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.23762376237623761</c:v>
+                  <c:v>9.9656357388316158E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>9.6185737976782759E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2153846153846154</c:v>
+                  <c:v>9.4462540716612378E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.19078947368421054</c:v>
+                  <c:v>9.4003241491085895E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.19760479041916168</c:v>
+                  <c:v>9.4855305466237938E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.19021739130434784</c:v>
+                  <c:v>9.4855305466237938E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.17910447761194029</c:v>
+                  <c:v>9.4098883572567779E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.15652173913043479</c:v>
+                  <c:v>9.569377990430622E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.13454545454545455</c:v>
+                  <c:v>9.569377990430622E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.12666666666666668</c:v>
+                  <c:v>9.5541401273885357E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.12269938650306748</c:v>
+                  <c:v>9.7133757961783446E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.11484593837535013</c:v>
+                  <c:v>9.6825396825396828E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1099476439790576</c:v>
+                  <c:v>9.8101265822784806E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1076923076923077</c:v>
+                  <c:v>9.7484276729559755E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>9.7178683385579931E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.10948905109489052</c:v>
+                  <c:v>9.6423017107309481E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.11058823529411765</c:v>
+                  <c:v>9.6423017107309481E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.11136890951276102</c:v>
+                  <c:v>9.6423017107309481E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.11670480549199085</c:v>
+                  <c:v>9.6423017107309481E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.11538461538461539</c:v>
+                  <c:v>9.5975232198142413E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.11581291759465479</c:v>
+                  <c:v>9.7372488408037097E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.11428571428571428</c:v>
+                  <c:v>9.7072419106317406E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.11064718162839249</c:v>
+                  <c:v>9.6923076923076917E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.11018711018711019</c:v>
+                  <c:v>9.6477794793261865E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.10685483870967742</c:v>
+                  <c:v>9.6477794793261865E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1067193675889328</c:v>
+                  <c:v>9.6330275229357804E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.10700389105058365</c:v>
+                  <c:v>9.5599393019726864E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.10556621880998081</c:v>
+                  <c:v>9.4879518072289157E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.10456273764258556</c:v>
+                  <c:v>9.4311377245508976E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.10486891385767791</c:v>
+                  <c:v>9.5665171898355758E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.10555555555555556</c:v>
+                  <c:v>9.658246656760773E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.10401459854014598</c:v>
+                  <c:v>9.5729013254786458E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.10326086956521739</c:v>
+                  <c:v>9.5307917888563048E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.10288808664259928</c:v>
+                  <c:v>9.7667638483965008E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.10142348754448399</c:v>
+                  <c:v>9.8408104196816212E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.10283687943262411</c:v>
+                  <c:v>9.8124098124098127E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>9.7841726618705036E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.7701149425287362E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.7560975609756101E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.8870056497175146E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.6818810511756573E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.5497953615279671E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.4086021505376344E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.3582887700534759E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.3791281373844126E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.4488188976377951E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.2426187419768935E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.125475285171103E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.98876404494382E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.3167701863354033E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.2478421701602961E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.036144578313253E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.907363420427554E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.7056128293241691E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.6907449209932278E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.8036117381489837E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.8863892013498313E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.8764044943820231E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.7389380530973448E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.503767491926803E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.3775185577942737E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.2896117523609647E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.4287200832466186E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.3419155509783724E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.4188911704312114E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.3758937691521956E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.2828282828282834E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.0234833659491189E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.953443258971872E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.8694817658349334E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.8169685414680654E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.7872744539411204E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.8524124881740778E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.8228086710650332E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.9737335834896811E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.9925650557620811E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.9851439182915512E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.918968692449356E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.9116835326586935E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.8538812785388129E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.7969174977334549E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.7407740774077402E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.767857142857143E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.7127659574468085E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.7601410934744264E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.7533039647577087E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.9225352112676062E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.926829268292683E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.9722703639514725E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.0410607356715139E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.9728583545377443E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.976490344248531E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.0231596360628613E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.0459770114942528E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.0606544293695126E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.009516256938938E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.254716981132075E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.1775700934579434E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.1916537867078823E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.1853281853281848E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.1601231716705164E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.1430745814307454E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8.2768999247554556E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8.2712369597615493E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.234421364985163E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8.2901554404145081E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8.2595870206489674E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.38235294117647E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.3272461650840027E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.442503639010189E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.4057971014492749E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8.3815028901734104E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.4354722422494588E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8.4233261339092869E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>8.4892086330935257E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8.4345961401000716E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.4517045454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8.4039548022598873E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.3684950773558364E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8.2753824756606392E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.4663428174878555E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8.5239085239085244E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.5813148788927332E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8.7016574585635359E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8.6657496561210454E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.5656016315431682E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.5656016315431682E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.6160108548168246E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.8075880758807581E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.7837837837837843E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.6870026525198943E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.724388631857237E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.6842105263157901E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.6218158066623127E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.6105675146771032E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.59375E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.505154639175258E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.5475578406169664E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8.5256410256410259E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8.5404716379859788E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.5768742058449809E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.5551330798479083E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.5967130214917822E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8.6792452830188674E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8.6629001883239173E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8.6874999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8.7795765877957663E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8.7632069608452448E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.7414755114693113E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8.8544891640866874E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.7891825445605407E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>8.7515299877600983E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8.990825688073395E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.003021148036254E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.167671893848009E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.2603728202044502E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.2925659472422067E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9.1607565011820324E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.1764705882352943E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.1388400702987704E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.9714285714285719E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8.9458689458689455E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8.9926010244735344E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.013605442176871E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9.034792368125702E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8.97936419408812E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9.2324805339265847E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.1966759002770085E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>9.2265193370165741E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9.206174200661521E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>9.2613009922822495E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.2908191313908747E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.2806150466776496E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.2653508771929821E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9.2744135297326794E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9.2985318107667206E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9.273318872017354E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9.3665403356794796E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9.1777188328912462E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>9.3121693121693119E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>9.3354430379746833E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9.3913955928646375E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9.3423799582463468E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>9.4172736732570234E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9.3782383419689114E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>9.3429158110882954E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>9.2462311557788945E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>9.2445328031809146E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>9.3069306930693069E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>9.3137254901960786E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9.4054580896686155E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9.415741187831965E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>9.306742640075974E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9.2609915809167442E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9.4357076780758553E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9.4245582238332584E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>9.6831771530566713E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>9.7180043383947937E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9.732256693582661E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9.5788604459124696E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.7250718096019692E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>9.8070739549839234E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9.6811819595645415E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9.7692307692307689E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.4843130183916338E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9.7059865391427566E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9.7207859358841783E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>9.7077594894188782E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.5974235104669889E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>9.8308330673475899E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.10015797788309637</c:v>
+                </c:pt>
+                <c:pt idx="250">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>9.9656357388316158E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9.6185737976782759E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9.6091205211726385E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9.5623987034035657E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9.4855305466237938E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>9.6463022508038579E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9.569377990430622E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9.569377990430622E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9.7288676236044661E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.7133757961783446E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.8726114649681534E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>9.841269841269841E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>9.8101265822784806E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>9.7484276729559755E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9.7178683385579931E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9.6423017107309481E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9.6423017107309481E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9.6423017107309481E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.7978227060653192E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.7523219814241488E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.7372488408037097E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.7072419106317406E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.6923076923076917E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.6477794793261865E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9.6477794793261865E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.6330275229357804E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.5599393019726864E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>9.6385542168674704E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>9.730538922155689E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>9.7159940209267562E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>9.658246656760773E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>9.8674521354933722E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>9.9706744868035185E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>9.9125364431486881E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>9.8408104196816212E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>9.8124098124098127E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>9.7841726618705036E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.10057471264367816</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.10043041606886657</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>9.8870056497175146E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>9.6818810511756573E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>9.5497953615279671E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>9.5430107526881719E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>9.6256684491978606E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>9.5112285336856006E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>9.4488188976377951E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>9.2426187419768935E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>9.5057034220532313E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>9.3632958801498134E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>9.3167701863354033E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>9.2478421701602961E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>9.1566265060240959E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>9.1448931116389548E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>8.8201603665521197E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>8.8636363636363638E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>8.916478555304741E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>8.916478555304741E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>8.8863892013498313E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>8.8764044943820231E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>8.7389380530973448E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>8.503767491926803E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>8.5896076352067863E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>8.4994753410283314E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>8.5327783558792919E-2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>8.4449021627188467E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>8.4188911704312114E-2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>8.3758937691521956E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>8.2828282828282834E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>8.0234833659491189E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>7.953443258971872E-2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>7.8694817658349334E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7.9122974261201143E-2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7.8822412155745494E-2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>8.0416272469252606E-2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>8.1055607917059375E-2</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>8.0675422138836772E-2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>7.9925650557620811E-2</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7.9851439182915512E-2</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>7.918968692449356E-2</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>7.9116835326586935E-2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7.8538812785388129E-2</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7.8875793291024482E-2</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>7.8307830783078305E-2</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7.857142857142857E-2</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>7.8014184397163122E-2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>7.9365079365079361E-2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>8.0176211453744498E-2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>8.098591549295775E-2</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>8.188153310104529E-2</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>8.1455805892547667E-2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>8.1266039349871685E-2</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>8.2273112807463952E-2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>8.2283795130142737E-2</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>8.3540115798180312E-2</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>8.2922824302134643E-2</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>8.3798882681564241E-2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>8.326724821570182E-2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>8.2554517133956382E-2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>8.1916537867078823E-2</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>8.2625482625482624E-2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>8.4680523479599687E-2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>8.4474885844748854E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>8.35214446952596E-2</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>8.3457526080476907E-2</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>8.3086053412462904E-2</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>8.4381939304219097E-2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>8.4070796460176997E-2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>8.5294117647058826E-2</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>8.473338203067933E-2</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>8.442503639010189E-2</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>8.478260869565217E-2</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>8.4537572254335266E-2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>8.5075702956020183E-2</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>8.4953203743700509E-2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>8.5611510791366904E-2</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>8.5060757684060045E-2</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>8.4517045454545456E-2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>8.4039548022598873E-2</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>8.5794655414908577E-2</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>8.5535465924895693E-2</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>8.6051353226925739E-2</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>8.7318087318087323E-2</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>8.7197231833910038E-2</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>8.7016574585635359E-2</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>8.6657496561210454E-2</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>8.6335825968728755E-2</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>8.8375254928619987E-2</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>8.819538670284939E-2</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>8.8753387533875336E-2</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>8.9189189189189194E-2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>8.7533156498673742E-2</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>8.724388631857237E-2</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>8.6842105263157901E-2</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>8.6218158066623127E-2</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>8.6105675146771032E-2</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>8.6588541666666671E-2</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>8.5695876288659795E-2</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>8.611825192802057E-2</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>8.6538461538461536E-2</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>8.6042065009560229E-2</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>8.6404066073697591E-2</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>8.7452471482889732E-2</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>8.7231352718078387E-2</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>8.7421383647798737E-2</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>8.851224105461393E-2</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>8.8124999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>8.7795765877957663E-2</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>8.8875077688004969E-2</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>8.8654680719156845E-2</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>8.8544891640866874E-2</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>9.0350338045482481E-2</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>9.118727050183599E-2</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>9.2966360856269109E-2</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>9.3051359516616319E-2</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>9.3486127864897461E-2</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>9.3205051112447382E-2</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>9.3525179856115109E-2</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>9.2198581560283682E-2</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>9.2352941176470582E-2</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>9.1974223784417108E-2</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>9.0285714285714289E-2</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>9.0598290598290596E-2</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>9.1633466135458169E-2</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>9.1269841269841265E-2</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>9.3153759820426493E-2</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>9.2582264361405472E-2</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>9.2880978865406E-2</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>9.25207756232687E-2</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>9.2817679558011054E-2</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>9.3164277839029766E-2</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>9.3164277839029766E-2</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>9.2908191313908747E-2</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>9.335529928610653E-2</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>9.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>9.3289689034369891E-2</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>9.4072865687873847E-2</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>9.3817787418655096E-2</c:v>
-                </c:pt>
                 <c:pt idx="251">
-                  <c:v>9.528965890633459E-2</c:v>
+                  <c:v>9.9333912539820449E-2</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>9.3899204244031836E-2</c:v>
+                  <c:v>0.10082597550555397</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>9.4708994708994715E-2</c:v>
+                  <c:v>0.10019482326746451</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>9.440928270042194E-2</c:v>
+                  <c:v>0.10089020771513353</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>9.4963273871983209E-2</c:v>
+                  <c:v>0.10248198558847077</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>9.446764091858037E-2</c:v>
+                  <c:v>0.10504201680672269</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>9.4693028095733614E-2</c:v>
+                  <c:v>0.10431927254357161</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>9.5336787564766837E-2</c:v>
+                  <c:v>0.10486059708857637</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>9.4455852156057493E-2</c:v>
+                  <c:v>0.10456411494808017</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>9.3467336683417085E-2</c:v>
+                  <c:v>0.10516431924882629</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>9.4E-2</c:v>
+                  <c:v>0.10635864592863678</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>9.4433399602385684E-2</c:v>
+                  <c:v>0.10793150067598017</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>9.5544554455445546E-2</c:v>
+                  <c:v>0.10997782705099779</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>9.5588235294117641E-2</c:v>
+                  <c:v>0.10827615780445969</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>9.5516569200779722E-2</c:v>
+                  <c:v>0.1087689713322091</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>9.5605987445678414E-2</c:v>
+                  <c:v>0.10845360824742269</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>9.686609686609686E-2</c:v>
+                  <c:v>0.1088407849484119</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>9.7287184284377923E-2</c:v>
+                  <c:v>0.1094316807738815</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>9.8057354301572613E-2</c:v>
+                  <c:v>0.10880726698262243</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>9.8323516085183513E-2</c:v>
+                  <c:v>0.10913009404388714</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0.10062893081761007</c:v>
+                  <c:v>0.11019389518141678</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0.10218652387327086</c:v>
+                  <c:v>0.11068919688627302</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0.10065075921908893</c:v>
+                  <c:v>0.11172022684310019</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0.10072248193795155</c:v>
+                  <c:v>0.11198354832679006</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0.10074318744838975</c:v>
+                  <c:v>0.11336938280812978</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0.10217480508822323</c:v>
+                  <c:v>0.11389352624744946</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0.10209003215434084</c:v>
+                  <c:v>0.11442786069651742</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0.10225505443234836</c:v>
+                  <c:v>0.11512620301434538</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0.10538461538461538</c:v>
+                  <c:v>0.11582175717120692</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0.10169491525423729</c:v>
+                  <c:v>0.11593682699210338</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0.10237336167198016</c:v>
+                  <c:v>0.11466996991682887</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0.10272319889693209</c:v>
+                  <c:v>0.11528291909042834</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0.1034598589183742</c:v>
+                  <c:v>0.11637704054765666</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0.10209339774557166</c:v>
+                  <c:v>0.11673355435351597</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0.10628790296840089</c:v>
+                  <c:v>0.11637114821828197</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0.10837282780410742</c:v>
+                  <c:v>0.11671223513328777</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0.1063063063063063</c:v>
+                  <c:v>0.11727659574468086</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0.10425716768027801</c:v>
+                  <c:v>0.11682400539447067</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0.10652235830247793</c:v>
+                  <c:v>0.11732124874118832</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>0.10687447815196215</c:v>
+                  <c:v>0.11703728473499415</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>0.10790396547073106</c:v>
+                  <c:v>0.11741160773849232</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0.11022151054176675</c:v>
+                  <c:v>0.11765679298361741</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>0.11160714285714286</c:v>
+                  <c:v>0.11798679867986799</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0.10937105329628694</c:v>
+                  <c:v>0.11822822328338548</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0.11053540587219343</c:v>
+                  <c:v>0.1180999180999181</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>0.11229171697657571</c:v>
+                  <c:v>0.11844469857866362</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>0.1124413145539906</c:v>
+                  <c:v>0.11841461425542325</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0.11344922232387923</c:v>
+                  <c:v>0.11822178798241328</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0.11378999549346552</c:v>
+                  <c:v>0.11844880739899399</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>0.11441241685144124</c:v>
+                  <c:v>0.1188663967611336</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>0.112778730703259</c:v>
+                  <c:v>0.11919780042050784</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>0.11340640809443507</c:v>
+                  <c:v>0.11987075928917609</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>0.11195876288659794</c:v>
+                  <c:v>0.11956171446986787</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>0.11147076674084563</c:v>
+                  <c:v>0.11951807228915663</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>0.11225312374042724</c:v>
+                  <c:v>0.11939102564102565</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>0.11334913112164297</c:v>
+                  <c:v>0.11954610835863833</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>0.11422413793103449</c:v>
+                  <c:v>0.11935535343864688</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>0.11345747744288731</c:v>
+                  <c:v>0.11948382985502629</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>0.11372697930510728</c:v>
+                  <c:v>0.11968804711125258</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>0.11493383742911154</c:v>
+                  <c:v>0.11977760127084988</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>0.11478781080575809</c:v>
+                  <c:v>0.12021597586152136</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0.11579339921685623</c:v>
+                  <c:v>0.12045707030630058</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>0.11760341309590057</c:v>
+                  <c:v>0.12040557667934093</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0.11829740187949143</c:v>
+                  <c:v>0.12058870074378858</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>0.11730524786635192</c:v>
+                  <c:v>0.12051241499288312</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>0.11690420349990979</c:v>
+                  <c:v>0.120398167167009</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>0.11737257717157215</c:v>
+                  <c:v>0.12083399147054177</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>0.11732436736860732</c:v>
+                  <c:v>0.1208149084017688</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>0.11792702273929138</c:v>
+                  <c:v>0.1208149084017688</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>0.11865894330349307</c:v>
+                  <c:v>0.12077676034101674</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>0.11917640900366429</c:v>
+                  <c:v>0.12077676034101674</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>0.1186090549147874</c:v>
+                  <c:v>0.12089646464646464</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>0.11842105263157894</c:v>
+                  <c:v>0.12101609340485958</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>0.11897872340425532</c:v>
+                  <c:v>0.12111654313199811</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>0.11800404585300067</c:v>
+                  <c:v>0.12125512456638285</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>0.11816045652903659</c:v>
+                  <c:v>0.12139366230490305</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>0.11887644206654406</c:v>
+                  <c:v>0.12151300236406619</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>0.11924616410940628</c:v>
+                  <c:v>0.12143644668451725</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>0.11881515803408903</c:v>
+                  <c:v>0.12157480314960629</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>0.11897689768976898</c:v>
+                  <c:v>0.12204724409448819</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>0.11938086612876667</c:v>
+                  <c:v>0.12232367758186398</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>0.11891891891891893</c:v>
+                  <c:v>0.12232367758186398</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>0.11860807057670315</c:v>
+                  <c:v>0.12246182905713836</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>0.11906703637253303</c:v>
+                  <c:v>0.12244255587031791</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0.11952450740921675</c:v>
+                  <c:v>0.12244255587031791</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>0.11958461788090216</c:v>
+                  <c:v>0.12259993704752911</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0.12016194331983805</c:v>
+                  <c:v>0.12275731822474033</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0.12000646935144751</c:v>
+                  <c:v>0.12275731822474033</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>0.12019386106623586</c:v>
+                  <c:v>0.12275731822474033</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0.12004511762810184</c:v>
+                  <c:v>0.12291469940195153</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>0.12016064257028113</c:v>
+                  <c:v>0.12287602265575834</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>0.11987179487179488</c:v>
+                  <c:v>0.12287602265575834</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>0.11986575035959725</c:v>
+                  <c:v>0.12301400031461381</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>0.11999361736077868</c:v>
+                  <c:v>0.12297531058342506</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>0.12012107694758643</c:v>
+                  <c:v>0.12293664518157522</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>0.12048384529683272</c:v>
+                  <c:v>0.12291732159698208</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>0.12057188244638602</c:v>
+                  <c:v>0.12289800408612289</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>0.12069239320311259</c:v>
+                  <c:v>0.1228786926461345</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>0.12093318520869703</c:v>
+                  <c:v>0.1228786926461345</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>0.12072243346007605</c:v>
+                  <c:v>0.1228786926461345</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>0.12058870074378858</c:v>
+                  <c:v>0.1228786926461345</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>0.12098687331962676</c:v>
+                  <c:v>0.12319296040226273</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>0.12087217569916259</c:v>
+                  <c:v>0.12319296040226273</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0.12083399147054177</c:v>
+                  <c:v>0.12350722815839095</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0.1208149084017688</c:v>
+                  <c:v>0.12366436203645506</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0.1208149084017688</c:v>
+                  <c:v>0.12364493322859388</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>0.12093463845910957</c:v>
+                  <c:v>0.12364493322859388</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>0.12109251657720239</c:v>
+                  <c:v>0.12364493322859388</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>0.12121212121212122</c:v>
+                  <c:v>0.12362551052466227</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>0.12133165036289051</c:v>
+                  <c:v>0.12376315376158316</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>0.12143195079640436</c:v>
+                  <c:v>0.12376315376158316</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>0.12157048249763482</c:v>
+                  <c:v>0.12376315376158316</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>0.12155131641179252</c:v>
+                  <c:v>0.12374371859296482</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>0.12167060677698975</c:v>
+                  <c:v>0.12372428952739833</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>0.12206646716018271</c:v>
+                  <c:v>0.12370486656200942</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>0.12236220472440945</c:v>
+                  <c:v>0.12370486656200942</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>0.12236220472440945</c:v>
+                  <c:v>0.12370486656200942</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>0.12248110831234257</c:v>
+                  <c:v>0.12366603892027621</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>0.12248110831234257</c:v>
+                  <c:v>0.12364663423819237</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>0.12246182905713836</c:v>
+                  <c:v>0.12362723564480703</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>0.12259993704752911</c:v>
+                  <c:v>0.12358845671267252</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>0.12275731822474033</c:v>
+                  <c:v>0.12358845671267252</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>0.12275731822474033</c:v>
+                  <c:v>0.12356907636819821</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>0.12275731822474033</c:v>
+                  <c:v>0.12370649106302917</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>0.12291469940195153</c:v>
+                  <c:v>0.12370649106302917</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>0.12291469940195153</c:v>
+                  <c:v>0.12386328002508623</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>0.12291469940195153</c:v>
+                  <c:v>0.1238244514106583</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>0.12303335431088736</c:v>
+                  <c:v>0.12398119122257054</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>0.12303335431088736</c:v>
+                  <c:v>0.12396176147939195</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>0.12301400031461381</c:v>
+                  <c:v>0.12396176147939195</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>0.12297531058342506</c:v>
+                  <c:v>0.12396176147939195</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>0.12293664518157522</c:v>
+                  <c:v>0.12396176147939195</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>0.12291732159698208</c:v>
+                  <c:v>0.12409902851770604</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>0.12289800408612289</c:v>
+                  <c:v>0.12409902851770604</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>0.1228786926461345</c:v>
+                  <c:v>0.12406015037593984</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>0.1228786926461345</c:v>
+                  <c:v>0.12419733750978856</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>0.12319296040226273</c:v>
+                  <c:v>0.12419733750978856</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>0.12319296040226273</c:v>
+                  <c:v>0.12419733750978856</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>0.12350722815839095</c:v>
+                  <c:v>0.12419733750978856</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>0.12366436203645506</c:v>
+                  <c:v>0.12417788913247729</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>0.12366436203645506</c:v>
+                  <c:v>0.12415844684515422</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>0.12366436203645506</c:v>
+                  <c:v>0.1241390106449593</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>0.12364493322859388</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>0.12364493322859388</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>0.12380204241948153</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>0.12378259503612944</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>0.12376315376158316</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>0.12376315376158316</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>0.12376315376158316</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>0.12374371859296482</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>0.12372428952739833</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>0.12370486656200942</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>0.12370486656200942</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>0.12370486656200942</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>0.12366603892027621</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>0.12364663423819237</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>0.12362723564480703</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>0.12358845671267252</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>0.12374529485570891</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>0.12372588991688882</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>0.12386328002508623</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>0.12386328002508623</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>0.12402006898714331</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>0.12398119122257054</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>0.12398119122257054</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>0.12396176147939195</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>0.12396176147939195</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>0.12411847672778561</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>0.12411847672778561</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>0.12409902851770604</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>0.12425571921027891</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>0.12421679197994988</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>0.12419733750978856</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>0.12419733750978856</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>0.12419733750978856</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>0.12419733750978856</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>0.12417788913247729</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>0.12415844684515422</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>0</c:v>
+                  <c:v>0.12411958052903428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,6 +2835,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3248,6 +3028,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3287,6 +3068,15 @@
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>cases vs. deaths looks like a 14 day lag</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>and we confirmed it on the correlation sheet</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14170,6 +13960,269 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65706</cdr:x>
+      <cdr:y>0.51776</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65818</cdr:x>
+      <cdr:y>0.70506</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD59FEA-1AB4-DFC7-C67C-833C72D9AF28}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="5163260" y="2290764"/>
+          <a:ext cx="8816" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60364</cdr:x>
+      <cdr:y>0.65124</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74667</cdr:x>
+      <cdr:y>0.79117</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68F4E7B-4DA4-CA9D-AADA-7C2F017D204C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4743452" y="2881313"/>
+          <a:ext cx="1123949" cy="619126"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>vaccines available</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80283</cdr:x>
+      <cdr:y>0.64227</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98061</cdr:x>
+      <cdr:y>0.7822</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B00BFE9-F458-B37A-CB48-A9E108E7289E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6308724" y="2841625"/>
+          <a:ext cx="1397002" cy="619126"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>&gt;20% increase in cum CFR!</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83919</cdr:x>
+      <cdr:y>0.44205</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84031</cdr:x>
+      <cdr:y>0.62935</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D87F4F-6853-5939-E17F-36FD5A86EA50}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="6594475" y="1955800"/>
+          <a:ext cx="8816" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14371,7 +14424,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14412,7 +14465,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24744,8 +24797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FDE38C-7F11-4050-9FAC-EDF1B7193801}">
   <dimension ref="A1:Q446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="J314" sqref="J314"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24786,11 +24839,11 @@
       <c r="N1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P1">
-        <v>16</v>
+      <c r="P1" s="5">
+        <v>14</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -25290,7 +25343,7 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -25328,7 +25381,7 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -25708,7 +25761,7 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="4"/>
-        <v>7.407407407407407E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -25746,7 +25799,7 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14814814814814814</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -25784,7 +25837,7 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -25822,7 +25875,7 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -25860,7 +25913,7 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -25898,7 +25951,7 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18421052631578946</v>
+        <v>0.15789473684210525</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -25936,7 +25989,7 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19047619047619047</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -25974,7 +26027,7 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -26012,7 +26065,7 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22807017543859648</v>
+        <v>0.14035087719298245</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -26050,7 +26103,7 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26984126984126983</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -26088,7 +26141,7 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24637681159420291</v>
+        <v>0.18840579710144928</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -26126,7 +26179,7 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25333333333333335</v>
+        <v>0.22666666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -26164,7 +26217,7 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2391304347826087</v>
+        <v>0.18478260869565216</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -26202,7 +26255,7 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23762376237623761</v>
+        <v>0.18811881188118812</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -26240,7 +26293,7 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22222222222222221</v>
+        <v>0.18803418803418803</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -26278,7 +26331,7 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2153846153846154</v>
+        <v>0.18461538461538463</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -26316,7 +26369,7 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19078947368421054</v>
+        <v>0.17105263157894737</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -26354,7 +26407,7 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19760479041916168</v>
+        <v>0.16766467065868262</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -26392,7 +26445,7 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19021739130434784</v>
+        <v>0.15760869565217392</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -26430,7 +26483,7 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17910447761194029</v>
+        <v>0.16417910447761194</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -26468,7 +26521,7 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15652173913043479</v>
+        <v>0.15217391304347827</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -26506,7 +26559,7 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13454545454545455</v>
+        <v>0.13090909090909092</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -26544,7 +26597,7 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12666666666666668</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -26582,7 +26635,7 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12269938650306748</v>
+        <v>0.11349693251533742</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -26620,7 +26673,7 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11484593837535013</v>
+        <v>0.10644257703081232</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -26658,7 +26711,7 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1099476439790576</v>
+        <v>0.10471204188481675</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -26696,7 +26749,7 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1076923076923077</v>
+        <v>0.10512820512820513</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -26734,7 +26787,7 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10810810810810811</v>
+        <v>0.10319410319410319</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -26772,7 +26825,7 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10948905109489052</v>
+        <v>0.10218978102189781</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -26810,7 +26863,7 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11058823529411765</v>
+        <v>0.10352941176470588</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -26848,7 +26901,7 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11136890951276102</v>
+        <v>0.10440835266821345</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -26886,7 +26939,7 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11670480549199085</v>
+        <v>0.10755148741418764</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -26924,7 +26977,7 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11538461538461539</v>
+        <v>0.10859728506787331</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -26962,7 +27015,7 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11581291759465479</v>
+        <v>0.11358574610244988</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -27000,7 +27053,7 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11428571428571428</v>
+        <v>0.11208791208791209</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -27038,7 +27091,7 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11064718162839249</v>
+        <v>0.10855949895615867</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -27076,7 +27129,7 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11018711018711019</v>
+        <v>0.10810810810810811</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -27152,7 +27205,7 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1067193675889328</v>
+        <v>0.10474308300395258</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -27190,7 +27243,7 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10700389105058365</v>
+        <v>0.10311284046692606</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -27228,7 +27281,7 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10556621880998081</v>
+        <v>0.1036468330134357</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -27304,7 +27357,7 @@
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" ca="1" si="10">OFFSET(M67, $P$1, 0)/L67</f>
-        <v>0.10486891385767791</v>
+        <v>0.10299625468164794</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -27342,7 +27395,7 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10555555555555556</v>
+        <v>0.10185185185185185</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -27380,7 +27433,7 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10401459854014598</v>
+        <v>0.10218978102189781</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -27532,7 +27585,7 @@
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10283687943262411</v>
+        <v>0.10106382978723404</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -27570,7 +27623,7 @@
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="10"/>
-        <v>0.1</v>
+        <v>9.8275862068965519E-2</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -27684,7 +27737,7 @@
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="10"/>
-        <v>9.6091205211726385E-2</v>
+        <v>9.4462540716612378E-2</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -27722,7 +27775,7 @@
       </c>
       <c r="N78">
         <f t="shared" ca="1" si="10"/>
-        <v>9.5623987034035657E-2</v>
+        <v>9.4003241491085895E-2</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -27798,7 +27851,7 @@
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="10"/>
-        <v>9.6463022508038579E-2</v>
+        <v>9.4855305466237938E-2</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -27836,7 +27889,7 @@
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="10"/>
-        <v>9.569377990430622E-2</v>
+        <v>9.4098883572567779E-2</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -27912,7 +27965,7 @@
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7288676236044661E-2</v>
+        <v>9.569377990430622E-2</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -27950,7 +28003,7 @@
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7133757961783446E-2</v>
+        <v>9.5541401273885357E-2</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -27988,7 +28041,7 @@
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8726114649681534E-2</v>
+        <v>9.7133757961783446E-2</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -28026,7 +28079,7 @@
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="10"/>
-        <v>9.841269841269841E-2</v>
+        <v>9.6825396825396828E-2</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -28292,7 +28345,7 @@
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7978227060653192E-2</v>
+        <v>9.6423017107309481E-2</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -28330,7 +28383,7 @@
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7523219814241488E-2</v>
+        <v>9.5975232198142413E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -28634,7 +28687,7 @@
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="10"/>
-        <v>9.6385542168674704E-2</v>
+        <v>9.4879518072289157E-2</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -28672,7 +28725,7 @@
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="10"/>
-        <v>9.730538922155689E-2</v>
+        <v>9.4311377245508976E-2</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -28710,7 +28763,7 @@
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7159940209267562E-2</v>
+        <v>9.5665171898355758E-2</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -28786,7 +28839,7 @@
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8674521354933722E-2</v>
+        <v>9.5729013254786458E-2</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -28824,7 +28877,7 @@
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="10"/>
-        <v>9.9706744868035185E-2</v>
+        <v>9.5307917888563048E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -28862,7 +28915,7 @@
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="10"/>
-        <v>9.9125364431486881E-2</v>
+        <v>9.7667638483965008E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -29014,7 +29067,7 @@
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10057471264367816</v>
+        <v>9.7701149425287362E-2</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -29052,7 +29105,7 @@
       </c>
       <c r="N113">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10043041606886657</v>
+        <v>9.7560975609756101E-2</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -29204,7 +29257,7 @@
       </c>
       <c r="N117">
         <f t="shared" ca="1" si="10"/>
-        <v>9.5430107526881719E-2</v>
+        <v>9.4086021505376344E-2</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -29242,7 +29295,7 @@
       </c>
       <c r="N118">
         <f t="shared" ca="1" si="10"/>
-        <v>9.6256684491978606E-2</v>
+        <v>9.3582887700534759E-2</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -29280,7 +29333,7 @@
       </c>
       <c r="N119">
         <f t="shared" ca="1" si="10"/>
-        <v>9.5112285336856006E-2</v>
+        <v>9.3791281373844126E-2</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -29394,7 +29447,7 @@
       </c>
       <c r="N122">
         <f t="shared" ca="1" si="10"/>
-        <v>9.5057034220532313E-2</v>
+        <v>9.125475285171103E-2</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -29432,7 +29485,7 @@
       </c>
       <c r="N123">
         <f t="shared" ca="1" si="10"/>
-        <v>9.3632958801498134E-2</v>
+        <v>8.98876404494382E-2</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -29546,7 +29599,7 @@
       </c>
       <c r="N126">
         <f t="shared" ca="1" si="10"/>
-        <v>9.1566265060240959E-2</v>
+        <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -29584,7 +29637,7 @@
       </c>
       <c r="N127">
         <f t="shared" ca="1" si="10"/>
-        <v>9.1448931116389548E-2</v>
+        <v>8.907363420427554E-2</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -29622,7 +29675,7 @@
       </c>
       <c r="N128">
         <f t="shared" ca="1" si="10"/>
-        <v>8.8201603665521197E-2</v>
+        <v>8.7056128293241691E-2</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -29660,7 +29713,7 @@
       </c>
       <c r="N129">
         <f t="shared" ca="1" si="10"/>
-        <v>8.8636363636363638E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -29698,7 +29751,7 @@
       </c>
       <c r="N130">
         <f t="shared" ca="1" si="10"/>
-        <v>8.916478555304741E-2</v>
+        <v>8.6907449209932278E-2</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -29736,7 +29789,7 @@
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" ca="1" si="16">OFFSET(M131, $P$1, 0)/L131</f>
-        <v>8.916478555304741E-2</v>
+        <v>8.8036117381489837E-2</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -29926,7 +29979,7 @@
       </c>
       <c r="N136">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5896076352067863E-2</v>
+        <v>8.3775185577942737E-2</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -29964,7 +30017,7 @@
       </c>
       <c r="N137">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4994753410283314E-2</v>
+        <v>8.2896117523609647E-2</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -30002,7 +30055,7 @@
       </c>
       <c r="N138">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5327783558792919E-2</v>
+        <v>8.4287200832466186E-2</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -30040,7 +30093,7 @@
       </c>
       <c r="N139">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4449021627188467E-2</v>
+        <v>8.3419155509783724E-2</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -30306,7 +30359,7 @@
       </c>
       <c r="N146">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9122974261201143E-2</v>
+        <v>7.8169685414680654E-2</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -30344,7 +30397,7 @@
       </c>
       <c r="N147">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8822412155745494E-2</v>
+        <v>7.7872744539411204E-2</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -30382,7 +30435,7 @@
       </c>
       <c r="N148">
         <f t="shared" ca="1" si="16"/>
-        <v>8.0416272469252606E-2</v>
+        <v>7.8524124881740778E-2</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -30420,7 +30473,7 @@
       </c>
       <c r="N149">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1055607917059375E-2</v>
+        <v>7.8228086710650332E-2</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -30458,7 +30511,7 @@
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="16"/>
-        <v>8.0675422138836772E-2</v>
+        <v>7.9737335834896811E-2</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -30686,7 +30739,7 @@
       </c>
       <c r="N156">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8875793291024482E-2</v>
+        <v>7.7969174977334549E-2</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -30724,7 +30777,7 @@
       </c>
       <c r="N157">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8307830783078305E-2</v>
+        <v>7.7407740774077402E-2</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -30762,7 +30815,7 @@
       </c>
       <c r="N158">
         <f t="shared" ca="1" si="16"/>
-        <v>7.857142857142857E-2</v>
+        <v>7.767857142857143E-2</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -30800,7 +30853,7 @@
       </c>
       <c r="N159">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8014184397163122E-2</v>
+        <v>7.7127659574468085E-2</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -30838,7 +30891,7 @@
       </c>
       <c r="N160">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.7601410934744264E-2</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -30876,7 +30929,7 @@
       </c>
       <c r="N161">
         <f t="shared" ca="1" si="16"/>
-        <v>8.0176211453744498E-2</v>
+        <v>7.7533039647577087E-2</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -30914,7 +30967,7 @@
       </c>
       <c r="N162">
         <f t="shared" ca="1" si="16"/>
-        <v>8.098591549295775E-2</v>
+        <v>7.9225352112676062E-2</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -30952,7 +31005,7 @@
       </c>
       <c r="N163">
         <f t="shared" ca="1" si="16"/>
-        <v>8.188153310104529E-2</v>
+        <v>7.926829268292683E-2</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -30990,7 +31043,7 @@
       </c>
       <c r="N164">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1455805892547667E-2</v>
+        <v>7.9722703639514725E-2</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -31028,7 +31081,7 @@
       </c>
       <c r="N165">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1266039349871685E-2</v>
+        <v>8.0410607356715139E-2</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -31066,7 +31119,7 @@
       </c>
       <c r="N166">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2273112807463952E-2</v>
+        <v>7.9728583545377443E-2</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -31104,7 +31157,7 @@
       </c>
       <c r="N167">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2283795130142737E-2</v>
+        <v>7.976490344248531E-2</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -31142,7 +31195,7 @@
       </c>
       <c r="N168">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3540115798180312E-2</v>
+        <v>8.0231596360628613E-2</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -31180,7 +31233,7 @@
       </c>
       <c r="N169">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2922824302134643E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -31218,7 +31271,7 @@
       </c>
       <c r="N170">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3798882681564241E-2</v>
+        <v>8.0606544293695126E-2</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -31256,7 +31309,7 @@
       </c>
       <c r="N171">
         <f t="shared" ca="1" si="16"/>
-        <v>8.326724821570182E-2</v>
+        <v>8.009516256938938E-2</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -31294,7 +31347,7 @@
       </c>
       <c r="N172">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3333333333333329E-2</v>
+        <v>8.254716981132075E-2</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -31332,7 +31385,7 @@
       </c>
       <c r="N173">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2554517133956382E-2</v>
+        <v>8.1775700934579434E-2</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -31408,7 +31461,7 @@
       </c>
       <c r="N175">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2625482625482624E-2</v>
+        <v>8.1853281853281848E-2</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -31446,7 +31499,7 @@
       </c>
       <c r="N176">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4680523479599687E-2</v>
+        <v>8.1601231716705164E-2</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -31484,7 +31537,7 @@
       </c>
       <c r="N177">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4474885844748854E-2</v>
+        <v>8.1430745814307454E-2</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -31522,7 +31575,7 @@
       </c>
       <c r="N178">
         <f t="shared" ca="1" si="16"/>
-        <v>8.35214446952596E-2</v>
+        <v>8.2768999247554556E-2</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -31560,7 +31613,7 @@
       </c>
       <c r="N179">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3457526080476907E-2</v>
+        <v>8.2712369597615493E-2</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -31598,7 +31651,7 @@
       </c>
       <c r="N180">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3086053412462904E-2</v>
+        <v>8.234421364985163E-2</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -31636,7 +31689,7 @@
       </c>
       <c r="N181">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4381939304219097E-2</v>
+        <v>8.2901554404145081E-2</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -31674,7 +31727,7 @@
       </c>
       <c r="N182">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4070796460176997E-2</v>
+        <v>8.2595870206489674E-2</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -31712,7 +31765,7 @@
       </c>
       <c r="N183">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5294117647058826E-2</v>
+        <v>8.38235294117647E-2</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -31750,7 +31803,7 @@
       </c>
       <c r="N184">
         <f t="shared" ca="1" si="16"/>
-        <v>8.473338203067933E-2</v>
+        <v>8.3272461650840027E-2</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -31826,7 +31879,7 @@
       </c>
       <c r="N186">
         <f t="shared" ca="1" si="16"/>
-        <v>8.478260869565217E-2</v>
+        <v>8.4057971014492749E-2</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -31864,7 +31917,7 @@
       </c>
       <c r="N187">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4537572254335266E-2</v>
+        <v>8.3815028901734104E-2</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -31902,7 +31955,7 @@
       </c>
       <c r="N188">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5075702956020183E-2</v>
+        <v>8.4354722422494588E-2</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -31940,7 +31993,7 @@
       </c>
       <c r="N189">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4953203743700509E-2</v>
+        <v>8.4233261339092869E-2</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -31978,7 +32031,7 @@
       </c>
       <c r="N190">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5611510791366904E-2</v>
+        <v>8.4892086330935257E-2</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -32016,7 +32069,7 @@
       </c>
       <c r="N191">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5060757684060045E-2</v>
+        <v>8.4345961401000716E-2</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -32130,7 +32183,7 @@
       </c>
       <c r="N194">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5794655414908577E-2</v>
+        <v>8.3684950773558364E-2</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -32168,7 +32221,7 @@
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N258" ca="1" si="22">OFFSET(M195, $P$1, 0)/L195</f>
-        <v>8.5535465924895693E-2</v>
+        <v>8.2753824756606392E-2</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -32206,7 +32259,7 @@
       </c>
       <c r="N196">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6051353226925739E-2</v>
+        <v>8.4663428174878555E-2</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -32244,7 +32297,7 @@
       </c>
       <c r="N197">
         <f t="shared" ca="1" si="22"/>
-        <v>8.7318087318087323E-2</v>
+        <v>8.5239085239085244E-2</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -32282,7 +32335,7 @@
       </c>
       <c r="N198">
         <f t="shared" ca="1" si="22"/>
-        <v>8.7197231833910038E-2</v>
+        <v>8.5813148788927332E-2</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -32396,7 +32449,7 @@
       </c>
       <c r="N201">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6335825968728755E-2</v>
+        <v>8.5656016315431682E-2</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -32434,7 +32487,7 @@
       </c>
       <c r="N202">
         <f t="shared" ca="1" si="22"/>
-        <v>8.8375254928619987E-2</v>
+        <v>8.5656016315431682E-2</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -32472,7 +32525,7 @@
       </c>
       <c r="N203">
         <f t="shared" ca="1" si="22"/>
-        <v>8.819538670284939E-2</v>
+        <v>8.6160108548168246E-2</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -32510,7 +32563,7 @@
       </c>
       <c r="N204">
         <f t="shared" ca="1" si="22"/>
-        <v>8.8753387533875336E-2</v>
+        <v>8.8075880758807581E-2</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -32548,7 +32601,7 @@
       </c>
       <c r="N205">
         <f t="shared" ca="1" si="22"/>
-        <v>8.9189189189189194E-2</v>
+        <v>8.7837837837837843E-2</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -32586,7 +32639,7 @@
       </c>
       <c r="N206">
         <f t="shared" ca="1" si="22"/>
-        <v>8.7533156498673742E-2</v>
+        <v>8.6870026525198943E-2</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -32776,7 +32829,7 @@
       </c>
       <c r="N211">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6588541666666671E-2</v>
+        <v>8.59375E-2</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
@@ -32814,7 +32867,7 @@
       </c>
       <c r="N212">
         <f t="shared" ca="1" si="22"/>
-        <v>8.5695876288659795E-2</v>
+        <v>8.505154639175258E-2</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
@@ -32852,7 +32905,7 @@
       </c>
       <c r="N213">
         <f t="shared" ca="1" si="22"/>
-        <v>8.611825192802057E-2</v>
+        <v>8.5475578406169664E-2</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
@@ -32890,7 +32943,7 @@
       </c>
       <c r="N214">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6538461538461536E-2</v>
+        <v>8.5256410256410259E-2</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -32928,7 +32981,7 @@
       </c>
       <c r="N215">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6042065009560229E-2</v>
+        <v>8.5404716379859788E-2</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
@@ -32966,7 +33019,7 @@
       </c>
       <c r="N216">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6404066073697591E-2</v>
+        <v>8.5768742058449809E-2</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -33004,7 +33057,7 @@
       </c>
       <c r="N217">
         <f t="shared" ca="1" si="22"/>
-        <v>8.7452471482889732E-2</v>
+        <v>8.5551330798479083E-2</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
@@ -33042,7 +33095,7 @@
       </c>
       <c r="N218">
         <f t="shared" ca="1" si="22"/>
-        <v>8.7231352718078387E-2</v>
+        <v>8.5967130214917822E-2</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
@@ -33080,7 +33133,7 @@
       </c>
       <c r="N219">
         <f t="shared" ca="1" si="22"/>
-        <v>8.7421383647798737E-2</v>
+        <v>8.6792452830188674E-2</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -33118,7 +33171,7 @@
       </c>
       <c r="N220">
         <f t="shared" ca="1" si="22"/>
-        <v>8.851224105461393E-2</v>
+        <v>8.6629001883239173E-2</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -33156,7 +33209,7 @@
       </c>
       <c r="N221">
         <f t="shared" ca="1" si="22"/>
-        <v>8.8124999999999995E-2</v>
+        <v>8.6874999999999994E-2</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -33232,7 +33285,7 @@
       </c>
       <c r="N223">
         <f t="shared" ca="1" si="22"/>
-        <v>8.8875077688004969E-2</v>
+        <v>8.7632069608452448E-2</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -33270,7 +33323,7 @@
       </c>
       <c r="N224">
         <f t="shared" ca="1" si="22"/>
-        <v>8.8654680719156845E-2</v>
+        <v>8.7414755114693113E-2</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -33346,7 +33399,7 @@
       </c>
       <c r="N226">
         <f t="shared" ca="1" si="22"/>
-        <v>9.0350338045482481E-2</v>
+        <v>8.7891825445605407E-2</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -33384,7 +33437,7 @@
       </c>
       <c r="N227">
         <f t="shared" ca="1" si="22"/>
-        <v>9.118727050183599E-2</v>
+        <v>8.7515299877600983E-2</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -33422,7 +33475,7 @@
       </c>
       <c r="N228">
         <f t="shared" ca="1" si="22"/>
-        <v>9.2966360856269109E-2</v>
+        <v>8.990825688073395E-2</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -33460,7 +33513,7 @@
       </c>
       <c r="N229">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3051359516616319E-2</v>
+        <v>9.003021148036254E-2</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -33498,7 +33551,7 @@
       </c>
       <c r="N230">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3486127864897461E-2</v>
+        <v>9.167671893848009E-2</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -33536,7 +33589,7 @@
       </c>
       <c r="N231">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3205051112447382E-2</v>
+        <v>9.2603728202044502E-2</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -33574,7 +33627,7 @@
       </c>
       <c r="N232">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3525179856115109E-2</v>
+        <v>9.2925659472422067E-2</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -33612,7 +33665,7 @@
       </c>
       <c r="N233">
         <f t="shared" ca="1" si="22"/>
-        <v>9.2198581560283682E-2</v>
+        <v>9.1607565011820324E-2</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -33650,7 +33703,7 @@
       </c>
       <c r="N234">
         <f t="shared" ca="1" si="22"/>
-        <v>9.2352941176470582E-2</v>
+        <v>9.1764705882352943E-2</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -33688,7 +33741,7 @@
       </c>
       <c r="N235">
         <f t="shared" ca="1" si="22"/>
-        <v>9.1974223784417108E-2</v>
+        <v>9.1388400702987704E-2</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -33726,7 +33779,7 @@
       </c>
       <c r="N236">
         <f t="shared" ca="1" si="22"/>
-        <v>9.0285714285714289E-2</v>
+        <v>8.9714285714285719E-2</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -33764,7 +33817,7 @@
       </c>
       <c r="N237">
         <f t="shared" ca="1" si="22"/>
-        <v>9.0598290598290596E-2</v>
+        <v>8.9458689458689455E-2</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -33802,7 +33855,7 @@
       </c>
       <c r="N238">
         <f t="shared" ca="1" si="22"/>
-        <v>9.1633466135458169E-2</v>
+        <v>8.9926010244735344E-2</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -33840,7 +33893,7 @@
       </c>
       <c r="N239">
         <f t="shared" ca="1" si="22"/>
-        <v>9.1269841269841265E-2</v>
+        <v>9.013605442176871E-2</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -33878,7 +33931,7 @@
       </c>
       <c r="N240">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3153759820426493E-2</v>
+        <v>9.034792368125702E-2</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -33916,7 +33969,7 @@
       </c>
       <c r="N241">
         <f t="shared" ca="1" si="22"/>
-        <v>9.2582264361405472E-2</v>
+        <v>8.97936419408812E-2</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -33954,7 +34007,7 @@
       </c>
       <c r="N242">
         <f t="shared" ca="1" si="22"/>
-        <v>9.2880978865406E-2</v>
+        <v>9.2324805339265847E-2</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -33992,7 +34045,7 @@
       </c>
       <c r="N243">
         <f t="shared" ca="1" si="22"/>
-        <v>9.25207756232687E-2</v>
+        <v>9.1966759002770085E-2</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -34030,7 +34083,7 @@
       </c>
       <c r="N244">
         <f t="shared" ca="1" si="22"/>
-        <v>9.2817679558011054E-2</v>
+        <v>9.2265193370165741E-2</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -34068,7 +34121,7 @@
       </c>
       <c r="N245">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3164277839029766E-2</v>
+        <v>9.206174200661521E-2</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -34106,7 +34159,7 @@
       </c>
       <c r="N246">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3164277839029766E-2</v>
+        <v>9.2613009922822495E-2</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -34182,7 +34235,7 @@
       </c>
       <c r="N248">
         <f t="shared" ca="1" si="22"/>
-        <v>9.335529928610653E-2</v>
+        <v>9.2806150466776496E-2</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -34220,7 +34273,7 @@
       </c>
       <c r="N249">
         <f t="shared" ca="1" si="22"/>
-        <v>9.375E-2</v>
+        <v>9.2653508771929821E-2</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -34258,7 +34311,7 @@
       </c>
       <c r="N250">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3289689034369891E-2</v>
+        <v>9.2744135297326794E-2</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -34296,7 +34349,7 @@
       </c>
       <c r="N251">
         <f t="shared" ca="1" si="22"/>
-        <v>9.4072865687873847E-2</v>
+        <v>9.2985318107667206E-2</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -34334,7 +34387,7 @@
       </c>
       <c r="N252">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3817787418655096E-2</v>
+        <v>9.273318872017354E-2</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -34372,7 +34425,7 @@
       </c>
       <c r="N253">
         <f t="shared" ca="1" si="22"/>
-        <v>9.528965890633459E-2</v>
+        <v>9.3665403356794796E-2</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -34410,7 +34463,7 @@
       </c>
       <c r="N254">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3899204244031836E-2</v>
+        <v>9.1777188328912462E-2</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -34448,7 +34501,7 @@
       </c>
       <c r="N255">
         <f t="shared" ca="1" si="22"/>
-        <v>9.4708994708994715E-2</v>
+        <v>9.3121693121693119E-2</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -34486,7 +34539,7 @@
       </c>
       <c r="N256">
         <f t="shared" ca="1" si="22"/>
-        <v>9.440928270042194E-2</v>
+        <v>9.3354430379746833E-2</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -34524,7 +34577,7 @@
       </c>
       <c r="N257">
         <f t="shared" ca="1" si="22"/>
-        <v>9.4963273871983209E-2</v>
+        <v>9.3913955928646375E-2</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
@@ -34562,7 +34615,7 @@
       </c>
       <c r="N258">
         <f t="shared" ca="1" si="22"/>
-        <v>9.446764091858037E-2</v>
+        <v>9.3423799582463468E-2</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
@@ -34600,7 +34653,7 @@
       </c>
       <c r="N259">
         <f t="shared" ref="N259:N322" ca="1" si="28">OFFSET(M259, $P$1, 0)/L259</f>
-        <v>9.4693028095733614E-2</v>
+        <v>9.4172736732570234E-2</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
@@ -34638,7 +34691,7 @@
       </c>
       <c r="N260">
         <f t="shared" ca="1" si="28"/>
-        <v>9.5336787564766837E-2</v>
+        <v>9.3782383419689114E-2</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
@@ -34676,7 +34729,7 @@
       </c>
       <c r="N261">
         <f t="shared" ca="1" si="28"/>
-        <v>9.4455852156057493E-2</v>
+        <v>9.3429158110882954E-2</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
@@ -34714,7 +34767,7 @@
       </c>
       <c r="N262">
         <f t="shared" ca="1" si="28"/>
-        <v>9.3467336683417085E-2</v>
+        <v>9.2462311557788945E-2</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -34752,7 +34805,7 @@
       </c>
       <c r="N263">
         <f t="shared" ca="1" si="28"/>
-        <v>9.4E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
@@ -34790,7 +34843,7 @@
       </c>
       <c r="N264">
         <f t="shared" ca="1" si="28"/>
-        <v>9.4433399602385684E-2</v>
+        <v>9.2445328031809146E-2</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
@@ -34828,7 +34881,7 @@
       </c>
       <c r="N265">
         <f t="shared" ca="1" si="28"/>
-        <v>9.5544554455445546E-2</v>
+        <v>9.3069306930693069E-2</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -34866,7 +34919,7 @@
       </c>
       <c r="N266">
         <f t="shared" ca="1" si="28"/>
-        <v>9.5588235294117641E-2</v>
+        <v>9.3137254901960786E-2</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -34904,7 +34957,7 @@
       </c>
       <c r="N267">
         <f t="shared" ca="1" si="28"/>
-        <v>9.5516569200779722E-2</v>
+        <v>9.4054580896686155E-2</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -34942,7 +34995,7 @@
       </c>
       <c r="N268">
         <f t="shared" ca="1" si="28"/>
-        <v>9.5605987445678414E-2</v>
+        <v>9.415741187831965E-2</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
@@ -34980,7 +35033,7 @@
       </c>
       <c r="N269">
         <f t="shared" ca="1" si="28"/>
-        <v>9.686609686609686E-2</v>
+        <v>9.306742640075974E-2</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -35018,7 +35071,7 @@
       </c>
       <c r="N270">
         <f t="shared" ca="1" si="28"/>
-        <v>9.7287184284377923E-2</v>
+        <v>9.2609915809167442E-2</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
@@ -35056,7 +35109,7 @@
       </c>
       <c r="N271">
         <f t="shared" ca="1" si="28"/>
-        <v>9.8057354301572613E-2</v>
+        <v>9.4357076780758553E-2</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
@@ -35094,7 +35147,7 @@
       </c>
       <c r="N272">
         <f t="shared" ca="1" si="28"/>
-        <v>9.8323516085183513E-2</v>
+        <v>9.4245582238332584E-2</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
@@ -35132,7 +35185,7 @@
       </c>
       <c r="N273">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10062893081761007</v>
+        <v>9.5238095238095233E-2</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
@@ -35170,7 +35223,7 @@
       </c>
       <c r="N274">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10218652387327086</v>
+        <v>9.6831771530566713E-2</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
@@ -35208,7 +35261,7 @@
       </c>
       <c r="N275">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10065075921908893</v>
+        <v>9.7180043383947937E-2</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
@@ -35246,7 +35299,7 @@
       </c>
       <c r="N276">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10072248193795155</v>
+        <v>9.732256693582661E-2</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
@@ -35284,7 +35337,7 @@
       </c>
       <c r="N277">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10074318744838975</v>
+        <v>9.5788604459124696E-2</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
@@ -35322,7 +35375,7 @@
       </c>
       <c r="N278">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10217480508822323</v>
+        <v>9.7250718096019692E-2</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
@@ -35360,7 +35413,7 @@
       </c>
       <c r="N279">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10209003215434084</v>
+        <v>9.8070739549839234E-2</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
@@ -35398,7 +35451,7 @@
       </c>
       <c r="N280">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10225505443234836</v>
+        <v>9.6811819595645415E-2</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
@@ -35436,7 +35489,7 @@
       </c>
       <c r="N281">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10538461538461538</v>
+        <v>9.7692307692307689E-2</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
@@ -35474,7 +35527,7 @@
       </c>
       <c r="N282">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10169491525423729</v>
+        <v>9.4843130183916338E-2</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
@@ -35512,7 +35565,7 @@
       </c>
       <c r="N283">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10237336167198016</v>
+        <v>9.7059865391427566E-2</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -35550,7 +35603,7 @@
       </c>
       <c r="N284">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10272319889693209</v>
+        <v>9.7207859358841783E-2</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
@@ -35588,7 +35641,7 @@
       </c>
       <c r="N285">
         <f t="shared" ca="1" si="28"/>
-        <v>0.1034598589183742</v>
+        <v>9.7077594894188782E-2</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
@@ -35626,7 +35679,7 @@
       </c>
       <c r="N286">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10209339774557166</v>
+        <v>9.5974235104669889E-2</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
@@ -35664,7 +35717,7 @@
       </c>
       <c r="N287">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10628790296840089</v>
+        <v>9.8308330673475899E-2</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
@@ -35702,7 +35755,7 @@
       </c>
       <c r="N288">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10837282780410742</v>
+        <v>0.10015797788309637</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
@@ -35740,7 +35793,7 @@
       </c>
       <c r="N289">
         <f t="shared" ca="1" si="28"/>
-        <v>0.1063063063063063</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
@@ -35778,7 +35831,7 @@
       </c>
       <c r="N290">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10425716768027801</v>
+        <v>9.9333912539820449E-2</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
@@ -35816,7 +35869,7 @@
       </c>
       <c r="N291">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10652235830247793</v>
+        <v>0.10082597550555397</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
@@ -35854,7 +35907,7 @@
       </c>
       <c r="N292">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10687447815196215</v>
+        <v>0.10019482326746451</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
@@ -35892,7 +35945,7 @@
       </c>
       <c r="N293">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10790396547073106</v>
+        <v>0.10089020771513353</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
@@ -35930,7 +35983,7 @@
       </c>
       <c r="N294">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11022151054176675</v>
+        <v>0.10248198558847077</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
@@ -35968,7 +36021,7 @@
       </c>
       <c r="N295">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11160714285714286</v>
+        <v>0.10504201680672269</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -36006,7 +36059,7 @@
       </c>
       <c r="N296">
         <f t="shared" ca="1" si="28"/>
-        <v>0.10937105329628694</v>
+        <v>0.10431927254357161</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
@@ -36044,7 +36097,7 @@
       </c>
       <c r="N297">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11053540587219343</v>
+        <v>0.10486059708857637</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
@@ -36082,7 +36135,7 @@
       </c>
       <c r="N298">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11229171697657571</v>
+        <v>0.10456411494808017</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
@@ -36120,7 +36173,7 @@
       </c>
       <c r="N299">
         <f t="shared" ca="1" si="28"/>
-        <v>0.1124413145539906</v>
+        <v>0.10516431924882629</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
@@ -36158,7 +36211,7 @@
       </c>
       <c r="N300">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11344922232387923</v>
+        <v>0.10635864592863678</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
@@ -36196,7 +36249,7 @@
       </c>
       <c r="N301">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11378999549346552</v>
+        <v>0.10793150067598017</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
@@ -36234,7 +36287,7 @@
       </c>
       <c r="N302">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11441241685144124</v>
+        <v>0.10997782705099779</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -36272,7 +36325,7 @@
       </c>
       <c r="N303">
         <f t="shared" ca="1" si="28"/>
-        <v>0.112778730703259</v>
+        <v>0.10827615780445969</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
@@ -36310,7 +36363,7 @@
       </c>
       <c r="N304">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11340640809443507</v>
+        <v>0.1087689713322091</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
@@ -36348,7 +36401,7 @@
       </c>
       <c r="N305">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11195876288659794</v>
+        <v>0.10845360824742269</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -36386,7 +36439,7 @@
       </c>
       <c r="N306">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11147076674084563</v>
+        <v>0.1088407849484119</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
@@ -36424,7 +36477,7 @@
       </c>
       <c r="N307">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11225312374042724</v>
+        <v>0.1094316807738815</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -36462,7 +36515,7 @@
       </c>
       <c r="N308">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11334913112164297</v>
+        <v>0.10880726698262243</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
@@ -36500,7 +36553,7 @@
       </c>
       <c r="N309">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11422413793103449</v>
+        <v>0.10913009404388714</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
@@ -36538,7 +36591,7 @@
       </c>
       <c r="N310">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11345747744288731</v>
+        <v>0.11019389518141678</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
@@ -36576,7 +36629,7 @@
       </c>
       <c r="N311">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11372697930510728</v>
+        <v>0.11068919688627302</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
@@ -36614,7 +36667,7 @@
       </c>
       <c r="N312">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11493383742911154</v>
+        <v>0.11172022684310019</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
@@ -36652,7 +36705,7 @@
       </c>
       <c r="N313">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11478781080575809</v>
+        <v>0.11198354832679006</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
@@ -36690,7 +36743,7 @@
       </c>
       <c r="N314">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11579339921685623</v>
+        <v>0.11336938280812978</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
@@ -36728,7 +36781,7 @@
       </c>
       <c r="N315">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11760341309590057</v>
+        <v>0.11389352624744946</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -36766,7 +36819,7 @@
       </c>
       <c r="N316">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11829740187949143</v>
+        <v>0.11442786069651742</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
@@ -36804,7 +36857,7 @@
       </c>
       <c r="N317">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11730524786635192</v>
+        <v>0.11512620301434538</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -36842,7 +36895,7 @@
       </c>
       <c r="N318">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11690420349990979</v>
+        <v>0.11582175717120692</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
@@ -36880,7 +36933,7 @@
       </c>
       <c r="N319">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11737257717157215</v>
+        <v>0.11593682699210338</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -36918,7 +36971,7 @@
       </c>
       <c r="N320">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11732436736860732</v>
+        <v>0.11466996991682887</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
@@ -36956,7 +37009,7 @@
       </c>
       <c r="N321">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11792702273929138</v>
+        <v>0.11528291909042834</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
@@ -36994,7 +37047,7 @@
       </c>
       <c r="N322">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11865894330349307</v>
+        <v>0.11637704054765666</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
@@ -37032,7 +37085,7 @@
       </c>
       <c r="N323">
         <f t="shared" ref="N323:N386" ca="1" si="34">OFFSET(M323, $P$1, 0)/L323</f>
-        <v>0.11917640900366429</v>
+        <v>0.11673355435351597</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
@@ -37070,7 +37123,7 @@
       </c>
       <c r="N324">
         <f t="shared" ca="1" si="34"/>
-        <v>0.1186090549147874</v>
+        <v>0.11637114821828197</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
@@ -37108,7 +37161,7 @@
       </c>
       <c r="N325">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11842105263157894</v>
+        <v>0.11671223513328777</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
@@ -37146,7 +37199,7 @@
       </c>
       <c r="N326">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11897872340425532</v>
+        <v>0.11727659574468086</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
@@ -37184,7 +37237,7 @@
       </c>
       <c r="N327">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11800404585300067</v>
+        <v>0.11682400539447067</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
@@ -37222,7 +37275,7 @@
       </c>
       <c r="N328">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11816045652903659</v>
+        <v>0.11732124874118832</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
@@ -37260,7 +37313,7 @@
       </c>
       <c r="N329">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11887644206654406</v>
+        <v>0.11703728473499415</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
@@ -37298,7 +37351,7 @@
       </c>
       <c r="N330">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11924616410940628</v>
+        <v>0.11741160773849232</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
@@ -37336,7 +37389,7 @@
       </c>
       <c r="N331">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11881515803408903</v>
+        <v>0.11765679298361741</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -37374,7 +37427,7 @@
       </c>
       <c r="N332">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11897689768976898</v>
+        <v>0.11798679867986799</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
@@ -37412,7 +37465,7 @@
       </c>
       <c r="N333">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11938086612876667</v>
+        <v>0.11822822328338548</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
@@ -37450,7 +37503,7 @@
       </c>
       <c r="N334">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11891891891891893</v>
+        <v>0.1180999180999181</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
@@ -37488,7 +37541,7 @@
       </c>
       <c r="N335">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11860807057670315</v>
+        <v>0.11844469857866362</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
@@ -37526,7 +37579,7 @@
       </c>
       <c r="N336">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11906703637253303</v>
+        <v>0.11841461425542325</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
@@ -37564,7 +37617,7 @@
       </c>
       <c r="N337">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11952450740921675</v>
+        <v>0.11822178798241328</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
@@ -37602,7 +37655,7 @@
       </c>
       <c r="N338">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11958461788090216</v>
+        <v>0.11844880739899399</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
@@ -37640,7 +37693,7 @@
       </c>
       <c r="N339">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12016194331983805</v>
+        <v>0.1188663967611336</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
@@ -37678,7 +37731,7 @@
       </c>
       <c r="N340">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12000646935144751</v>
+        <v>0.11919780042050784</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
@@ -37716,7 +37769,7 @@
       </c>
       <c r="N341">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12019386106623586</v>
+        <v>0.11987075928917609</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
@@ -37754,7 +37807,7 @@
       </c>
       <c r="N342">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12004511762810184</v>
+        <v>0.11956171446986787</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
@@ -37792,7 +37845,7 @@
       </c>
       <c r="N343">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12016064257028113</v>
+        <v>0.11951807228915663</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -37830,7 +37883,7 @@
       </c>
       <c r="N344">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11987179487179488</v>
+        <v>0.11939102564102565</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.25">
@@ -37868,7 +37921,7 @@
       </c>
       <c r="N345">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11986575035959725</v>
+        <v>0.11954610835863833</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.25">
@@ -37906,7 +37959,7 @@
       </c>
       <c r="N346">
         <f t="shared" ca="1" si="34"/>
-        <v>0.11999361736077868</v>
+        <v>0.11935535343864688</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
@@ -37938,7 +37991,7 @@
       </c>
       <c r="N347">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12012107694758643</v>
+        <v>0.11948382985502629</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
@@ -37970,7 +38023,7 @@
       </c>
       <c r="N348">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12048384529683272</v>
+        <v>0.11968804711125258</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.25">
@@ -38002,7 +38055,7 @@
       </c>
       <c r="N349">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12057188244638602</v>
+        <v>0.11977760127084988</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.25">
@@ -38034,7 +38087,7 @@
       </c>
       <c r="N350">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12069239320311259</v>
+        <v>0.12021597586152136</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.25">
@@ -38066,7 +38119,7 @@
       </c>
       <c r="N351">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12093318520869703</v>
+        <v>0.12045707030630058</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -38098,7 +38151,7 @@
       </c>
       <c r="N352">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12072243346007605</v>
+        <v>0.12040557667934093</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -38162,7 +38215,7 @@
       </c>
       <c r="N354">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12098687331962676</v>
+        <v>0.12051241499288312</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -38194,7 +38247,7 @@
       </c>
       <c r="N355">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12087217569916259</v>
+        <v>0.120398167167009</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -38322,7 +38375,7 @@
       </c>
       <c r="N359">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12093463845910957</v>
+        <v>0.12077676034101674</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
@@ -38354,7 +38407,7 @@
       </c>
       <c r="N360">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12109251657720239</v>
+        <v>0.12077676034101674</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
@@ -38386,7 +38439,7 @@
       </c>
       <c r="N361">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12121212121212122</v>
+        <v>0.12089646464646464</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
@@ -38418,7 +38471,7 @@
       </c>
       <c r="N362">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12133165036289051</v>
+        <v>0.12101609340485958</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
@@ -38450,7 +38503,7 @@
       </c>
       <c r="N363">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12143195079640436</v>
+        <v>0.12111654313199811</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
@@ -38482,7 +38535,7 @@
       </c>
       <c r="N364">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12157048249763482</v>
+        <v>0.12125512456638285</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.25">
@@ -38514,7 +38567,7 @@
       </c>
       <c r="N365">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12155131641179252</v>
+        <v>0.12139366230490305</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
@@ -38546,7 +38599,7 @@
       </c>
       <c r="N366">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12167060677698975</v>
+        <v>0.12151300236406619</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
@@ -38578,7 +38631,7 @@
       </c>
       <c r="N367">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12206646716018271</v>
+        <v>0.12143644668451725</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
@@ -38610,7 +38663,7 @@
       </c>
       <c r="N368">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12236220472440945</v>
+        <v>0.12157480314960629</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.25">
@@ -38642,7 +38695,7 @@
       </c>
       <c r="N369">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12236220472440945</v>
+        <v>0.12204724409448819</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.25">
@@ -38674,7 +38727,7 @@
       </c>
       <c r="N370">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12248110831234257</v>
+        <v>0.12232367758186398</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
@@ -38706,7 +38759,7 @@
       </c>
       <c r="N371">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12248110831234257</v>
+        <v>0.12232367758186398</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.25">
@@ -38770,7 +38823,7 @@
       </c>
       <c r="N373">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12259993704752911</v>
+        <v>0.12244255587031791</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
@@ -38802,7 +38855,7 @@
       </c>
       <c r="N374">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12275731822474033</v>
+        <v>0.12244255587031791</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
@@ -38834,7 +38887,7 @@
       </c>
       <c r="N375">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12275731822474033</v>
+        <v>0.12259993704752911</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.25">
@@ -38898,7 +38951,7 @@
       </c>
       <c r="N377">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12291469940195153</v>
+        <v>0.12275731822474033</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.25">
@@ -38924,7 +38977,7 @@
       </c>
       <c r="N378">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12291469940195153</v>
+        <v>0.12275731822474033</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
@@ -38976,7 +39029,7 @@
       </c>
       <c r="N380">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12303335431088736</v>
+        <v>0.12287602265575834</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.25">
@@ -39002,7 +39055,7 @@
       </c>
       <c r="N381">
         <f t="shared" ca="1" si="34"/>
-        <v>0.12303335431088736</v>
+        <v>0.12287602265575834</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.25">
@@ -39210,7 +39263,7 @@
       </c>
       <c r="N389">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12319296040226273</v>
+        <v>0.1228786926461345</v>
       </c>
     </row>
     <row r="390" spans="8:14" x14ac:dyDescent="0.25">
@@ -39236,7 +39289,7 @@
       </c>
       <c r="N390">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12319296040226273</v>
+        <v>0.1228786926461345</v>
       </c>
     </row>
     <row r="391" spans="8:14" x14ac:dyDescent="0.25">
@@ -39262,7 +39315,7 @@
       </c>
       <c r="N391">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12350722815839095</v>
+        <v>0.12319296040226273</v>
       </c>
     </row>
     <row r="392" spans="8:14" x14ac:dyDescent="0.25">
@@ -39288,7 +39341,7 @@
       </c>
       <c r="N392">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12366436203645506</v>
+        <v>0.12319296040226273</v>
       </c>
     </row>
     <row r="393" spans="8:14" x14ac:dyDescent="0.25">
@@ -39314,7 +39367,7 @@
       </c>
       <c r="N393">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12366436203645506</v>
+        <v>0.12350722815839095</v>
       </c>
     </row>
     <row r="394" spans="8:14" x14ac:dyDescent="0.25">
@@ -39418,7 +39471,7 @@
       </c>
       <c r="N397">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12380204241948153</v>
+        <v>0.12364493322859388</v>
       </c>
     </row>
     <row r="398" spans="8:14" x14ac:dyDescent="0.25">
@@ -39444,7 +39497,7 @@
       </c>
       <c r="N398">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12378259503612944</v>
+        <v>0.12362551052466227</v>
       </c>
     </row>
     <row r="399" spans="8:14" x14ac:dyDescent="0.25">
@@ -39782,7 +39835,7 @@
       </c>
       <c r="N411">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12374529485570891</v>
+        <v>0.12358845671267252</v>
       </c>
     </row>
     <row r="412" spans="8:14" x14ac:dyDescent="0.25">
@@ -39808,7 +39861,7 @@
       </c>
       <c r="N412">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12372588991688882</v>
+        <v>0.12356907636819821</v>
       </c>
     </row>
     <row r="413" spans="8:14" x14ac:dyDescent="0.25">
@@ -39834,7 +39887,7 @@
       </c>
       <c r="N413">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12386328002508623</v>
+        <v>0.12370649106302917</v>
       </c>
     </row>
     <row r="414" spans="8:14" x14ac:dyDescent="0.25">
@@ -39860,7 +39913,7 @@
       </c>
       <c r="N414">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12386328002508623</v>
+        <v>0.12370649106302917</v>
       </c>
     </row>
     <row r="415" spans="8:14" x14ac:dyDescent="0.25">
@@ -39886,7 +39939,7 @@
       </c>
       <c r="N415">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12402006898714331</v>
+        <v>0.12386328002508623</v>
       </c>
     </row>
     <row r="416" spans="8:14" x14ac:dyDescent="0.25">
@@ -39912,7 +39965,7 @@
       </c>
       <c r="N416">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12398119122257054</v>
+        <v>0.1238244514106583</v>
       </c>
     </row>
     <row r="417" spans="8:14" x14ac:dyDescent="0.25">
@@ -40016,7 +40069,7 @@
       </c>
       <c r="N420">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12411847672778561</v>
+        <v>0.12396176147939195</v>
       </c>
     </row>
     <row r="421" spans="8:14" x14ac:dyDescent="0.25">
@@ -40042,7 +40095,7 @@
       </c>
       <c r="N421">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12411847672778561</v>
+        <v>0.12396176147939195</v>
       </c>
     </row>
     <row r="422" spans="8:14" x14ac:dyDescent="0.25">
@@ -40094,7 +40147,7 @@
       </c>
       <c r="N423">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12425571921027891</v>
+        <v>0.12409902851770604</v>
       </c>
     </row>
     <row r="424" spans="8:14" x14ac:dyDescent="0.25">
@@ -40120,7 +40173,7 @@
       </c>
       <c r="N424">
         <f t="shared" ca="1" si="40"/>
-        <v>0.12421679197994988</v>
+        <v>0.12406015037593984</v>
       </c>
     </row>
     <row r="425" spans="8:14" x14ac:dyDescent="0.25">
@@ -40302,7 +40355,7 @@
       </c>
       <c r="N431">
         <f t="shared" ca="1" si="40"/>
-        <v>0</v>
+        <v>0.1241390106449593</v>
       </c>
     </row>
     <row r="432" spans="8:14" x14ac:dyDescent="0.25">
@@ -40328,7 +40381,7 @@
       </c>
       <c r="N432">
         <f t="shared" ca="1" si="40"/>
-        <v>0</v>
+        <v>0.12411958052903428</v>
       </c>
     </row>
     <row r="433" spans="8:14" x14ac:dyDescent="0.25">
@@ -40703,12 +40756,806 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDF9D04-9663-4D21-B525-0A77E937F042}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>44158</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f ca="1">CORREL(B2:B41,OFFSET(B2:B41,E2,1))</f>
+        <v>4.6630399432400584E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>44159</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" ca="1" si="0">CORREL(B3:B42,OFFSET(B3:B42,E3,1))</f>
+        <v>-9.7914221654420125E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>44160</v>
+      </c>
+      <c r="B4">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.25033663563973629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>44161</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.0296046611647219E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>44162</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3292404921906649E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>44163</v>
+      </c>
+      <c r="B7">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.4555915660761344E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>44164</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.3418446972117374E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>44165</v>
+      </c>
+      <c r="B9">
+        <v>173</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14584917975798797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>44166</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20687512705731237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>44167</v>
+      </c>
+      <c r="B11">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.5237895322629917E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>44168</v>
+      </c>
+      <c r="B12">
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21209440630783125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>44169</v>
+      </c>
+      <c r="B13">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45477483445512079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>44170</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20173900080153398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>44171</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1983480643503634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>44172</v>
+      </c>
+      <c r="B16">
+        <v>165</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55367547220573032</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>44173</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21539325314855381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>44174</v>
+      </c>
+      <c r="B18">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24855750131548046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>44175</v>
+      </c>
+      <c r="B19">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>44176</v>
+      </c>
+      <c r="B20">
+        <v>114</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>44177</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>44178</v>
+      </c>
+      <c r="B22">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>44179</v>
+      </c>
+      <c r="B23">
+        <v>151</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>44180</v>
+      </c>
+      <c r="B24">
+        <v>94</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>44181</v>
+      </c>
+      <c r="B25">
+        <v>88</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>44182</v>
+      </c>
+      <c r="B26">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>44183</v>
+      </c>
+      <c r="B27">
+        <v>112</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>44184</v>
+      </c>
+      <c r="B28">
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>44185</v>
+      </c>
+      <c r="B29">
+        <v>72</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>44186</v>
+      </c>
+      <c r="B30">
+        <v>154</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>44187</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>44188</v>
+      </c>
+      <c r="B32">
+        <v>106</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>44189</v>
+      </c>
+      <c r="B33">
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>44190</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>44191</v>
+      </c>
+      <c r="B35">
+        <v>102</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>44192</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>44193</v>
+      </c>
+      <c r="B37">
+        <v>105</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>44194</v>
+      </c>
+      <c r="B38">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>44195</v>
+      </c>
+      <c r="B39">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>44196</v>
+      </c>
+      <c r="B40">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>44197</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>44198</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>44199</v>
+      </c>
+      <c r="B43">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>44200</v>
+      </c>
+      <c r="B44">
+        <v>80</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44201</v>
+      </c>
+      <c r="B45">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>44202</v>
+      </c>
+      <c r="B46">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>44203</v>
+      </c>
+      <c r="B47">
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>44204</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>44205</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>44206</v>
+      </c>
+      <c r="B50">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>44207</v>
+      </c>
+      <c r="B51">
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>44208</v>
+      </c>
+      <c r="B52">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>44209</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>44210</v>
+      </c>
+      <c r="B54">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>44211</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>44212</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>44213</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>44214</v>
+      </c>
+      <c r="B58">
+        <v>47</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>44215</v>
+      </c>
+      <c r="B59">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>44216</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/santa_clara_county/LTCF/CFR_in_LTCF_version2.xlsx
+++ b/santa_clara_county/LTCF/CFR_in_LTCF_version2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\santa_clara_county\LTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83C95D-1E9B-464B-9E81-AE2B32145CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F4C9C-F549-4F69-8BE1-F76BE46D231A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{117AAEEC-A907-4519-B809-3E58232F1605}"/>
   </bookViews>
